--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>72.39049</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100.50014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.68309</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05622</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30.82548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>127.41871</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.09876</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48.16465</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.64205</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81.63029</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22.02753</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23.40867</v>
-      </c>
-      <c r="N2" t="n">
-        <v>130.21297</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.12076999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.450200000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>102.41913</v>
-      </c>
-      <c r="R2" t="n">
-        <v>43.93196</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>20.10081</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.40931</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.26888</v>
-      </c>
-      <c r="W2" t="n">
-        <v>11.41047</v>
-      </c>
-      <c r="X2" t="n">
-        <v>15.3368</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>54.30301</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>157.29319</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>44.85623</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29.801</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.12116</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2208.83</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>199.66718</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.43006</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>64.42373000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>125.0139</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>241.0553</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.77246</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>57.31098</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>107.01733</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>62.08592</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>81.5624</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10.61126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>110.72241</v>
-      </c>
-      <c r="C3" t="n">
-        <v>183.10165</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.77904</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1912</v>
-      </c>
-      <c r="F3" t="n">
-        <v>55.36176</v>
-      </c>
-      <c r="G3" t="n">
-        <v>228.10179</v>
-      </c>
-      <c r="H3" t="n">
-        <v>30.17029</v>
-      </c>
-      <c r="I3" t="n">
-        <v>76.7932</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38.33548</v>
-      </c>
-      <c r="K3" t="n">
-        <v>122.59332</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31.69258</v>
-      </c>
-      <c r="M3" t="n">
-        <v>37.9723</v>
-      </c>
-      <c r="N3" t="n">
-        <v>223.0514</v>
-      </c>
-      <c r="O3" t="n">
-        <v>118.00863</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.43528</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>140.23462</v>
-      </c>
-      <c r="R3" t="n">
-        <v>60.55593</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01343</v>
-      </c>
-      <c r="T3" t="n">
-        <v>32.53762</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.28087</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.84613</v>
-      </c>
-      <c r="W3" t="n">
-        <v>17.78458</v>
-      </c>
-      <c r="X3" t="n">
-        <v>22.5736</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>83.0975</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>223.2482</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>73.09908</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>50.02924</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.03725</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3527.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>382.03942</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.74652</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>118.9311</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>206.44708</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>331.81543</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.74471</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>84.50582</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>175.17086</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>78.30727</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>120.65123</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15.38473</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>170.55696</v>
-      </c>
-      <c r="C4" t="n">
-        <v>266.82671</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.29409</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.21564</v>
-      </c>
-      <c r="F4" t="n">
-        <v>72.51497999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>323.46253</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41.93657</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116.16546</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54.71501</v>
-      </c>
-      <c r="K4" t="n">
-        <v>195.20214</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45.07626</v>
-      </c>
-      <c r="M4" t="n">
-        <v>53.73014</v>
-      </c>
-      <c r="N4" t="n">
-        <v>331.377</v>
-      </c>
-      <c r="O4" t="n">
-        <v>158.97731</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16.66057</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>203.87907</v>
-      </c>
-      <c r="R4" t="n">
-        <v>85.04465</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>44.51088</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.24099</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.3777</v>
-      </c>
-      <c r="W4" t="n">
-        <v>35.69436</v>
-      </c>
-      <c r="X4" t="n">
-        <v>35.98909</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>126.79219</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>334.12091</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>97.31617</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>92.54141</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>5192.26</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>613.6921</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.81783</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>162.72678</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>303.62245</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>462.51574</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23.03812</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>116.30956</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>243.37389</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>89.80728000000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>208.87276</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>24.26663</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
